--- a/100runs/run029/NotionalETEOutput029.xlsx
+++ b/100runs/run029/NotionalETEOutput029.xlsx
@@ -49,19 +49,19 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_213.MISSILE_SOMERSAULT_213</t>
+    <t>MISSILE_HIGHWIND_24.MISSILE_HIGHWIND_24</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_20.MISSILE_BRAVER_20</t>
+    <t>MISSILE_BRAVER_350.MISSILE_BRAVER_350</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G2">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H2">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I2">
-        <v>-1273.600703734179</v>
+        <v>1114862.420363279</v>
       </c>
       <c r="J2">
-        <v>2260.60858646685</v>
+        <v>4843226.823622494</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.644619674</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G3">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H3">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I3">
-        <v>-1248.456434578346</v>
+        <v>1114892.034387977</v>
       </c>
       <c r="J3">
-        <v>2205.617487411872</v>
+        <v>4843178.171998608</v>
       </c>
       <c r="K3">
-        <v>331.2335746954562</v>
+        <v>3984675.44071256</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G4">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H4">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I4">
-        <v>-1222.693010926854</v>
+        <v>1114922.37763079</v>
       </c>
       <c r="J4">
-        <v>2150.626388356895</v>
+        <v>4843129.520374721</v>
       </c>
       <c r="K4">
-        <v>645.950325036398</v>
+        <v>3984964.088139702</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G5">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H5">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I5">
-        <v>-1196.295186669859</v>
+        <v>1114953.468048041</v>
       </c>
       <c r="J5">
-        <v>2095.635289301917</v>
+        <v>4843080.868750835</v>
       </c>
       <c r="K5">
-        <v>944.1502510228277</v>
+        <v>3985237.586901102</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G6">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H6">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I6">
-        <v>-1169.247340276089</v>
+        <v>1114985.324038214</v>
       </c>
       <c r="J6">
-        <v>2040.644190246939</v>
+        <v>4843032.217126949</v>
       </c>
       <c r="K6">
-        <v>1225.833352654744</v>
+        <v>3985495.93699676</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G7">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H7">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I7">
-        <v>-1141.533465548435</v>
+        <v>1115017.964452839</v>
       </c>
       <c r="J7">
-        <v>1985.653091191961</v>
+        <v>4842983.565503063</v>
       </c>
       <c r="K7">
-        <v>1490.999629932147</v>
+        <v>3985739.138426675</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G8">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H8">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I8">
-        <v>-1113.137162151909</v>
+        <v>1115051.408607645</v>
       </c>
       <c r="J8">
-        <v>1930.661992136984</v>
+        <v>4842934.913879177</v>
       </c>
       <c r="K8">
-        <v>1739.649082855038</v>
+        <v>3985967.191190847</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G9">
-        <v>-113.5933676159285</v>
+        <v>4841122.070228448</v>
       </c>
       <c r="H9">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I9">
-        <v>-1084.041625908364</v>
+        <v>1115085.676293995</v>
       </c>
       <c r="J9">
-        <v>1875.670893082006</v>
+        <v>4842886.262255291</v>
       </c>
       <c r="K9">
-        <v>1971.781711423416</v>
+        <v>3986180.095289277</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>256.3241858108965</v>
+        <v>1116580.178126755</v>
       </c>
       <c r="G10">
-        <v>-94.83590517959843</v>
+        <v>4841138.583039155</v>
       </c>
       <c r="H10">
-        <v>1429.062275204675</v>
+        <v>3985229.178223621</v>
       </c>
       <c r="I10">
-        <v>-1054.229638852224</v>
+        <v>1115120.787790596</v>
       </c>
       <c r="J10">
-        <v>1820.679794027028</v>
+        <v>4842837.610631404</v>
       </c>
       <c r="K10">
-        <v>2187.397515637279</v>
+        <v>3986377.850721964</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>198.9374700610399</v>
+        <v>1116531.49748999</v>
       </c>
       <c r="G11">
-        <v>-76.07844274326834</v>
+        <v>4841155.095849861</v>
       </c>
       <c r="H11">
-        <v>1760.595106812345</v>
+        <v>3985428.432672887</v>
       </c>
       <c r="I11">
-        <v>-1023.683559041352</v>
+        <v>1115156.763875498</v>
       </c>
       <c r="J11">
-        <v>1765.688694972051</v>
+        <v>4842788.959007518</v>
       </c>
       <c r="K11">
-        <v>2386.496495496629</v>
+        <v>3986560.457488909</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>165.2256533864254</v>
+        <v>1116502.900057975</v>
       </c>
       <c r="G12">
-        <v>-57.32098030693827</v>
+        <v>4841171.608660568</v>
       </c>
       <c r="H12">
-        <v>1958.073016550574</v>
+        <v>3985547.11881313</v>
       </c>
       <c r="I12">
-        <v>-992.3853101170158</v>
+        <v>1115193.625838395</v>
       </c>
       <c r="J12">
-        <v>1710.697595917073</v>
+        <v>4842740.307383631</v>
       </c>
       <c r="K12">
-        <v>2569.078651001468</v>
+        <v>3986727.915590111</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>143.9442814774042</v>
+        <v>1116484.847260873</v>
       </c>
       <c r="G13">
-        <v>-38.56351787060819</v>
+        <v>4841188.121471276</v>
       </c>
       <c r="H13">
-        <v>2099.197131618813</v>
+        <v>3985631.935775871</v>
       </c>
       <c r="I13">
-        <v>-960.3163706067779</v>
+        <v>1115231.395493214</v>
       </c>
       <c r="J13">
-        <v>1655.706496862095</v>
+        <v>4842691.655759745</v>
       </c>
       <c r="K13">
-        <v>2735.143982151793</v>
+        <v>3986880.22502557</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>129.102739094213</v>
+        <v>1116472.257313455</v>
       </c>
       <c r="G14">
-        <v>-19.80605543427811</v>
+        <v>4841204.634281982</v>
       </c>
       <c r="H14">
-        <v>2209.090404415151</v>
+        <v>3985697.982699317</v>
       </c>
       <c r="I14">
-        <v>-927.4577629639844</v>
+        <v>1115270.095191037</v>
       </c>
       <c r="J14">
-        <v>1600.715397807117</v>
+        <v>4842643.00413586</v>
       </c>
       <c r="K14">
-        <v>2884.692488947605</v>
+        <v>3987017.385795288</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>118.0305040228687</v>
+        <v>1116462.864835655</v>
       </c>
       <c r="G15">
-        <v>-1.048592997948041</v>
+        <v>4841221.147092689</v>
       </c>
       <c r="H15">
-        <v>2299.101518934575</v>
+        <v>3985752.080252687</v>
       </c>
       <c r="I15">
-        <v>-893.7900423373517</v>
+        <v>1115309.747833315</v>
       </c>
       <c r="J15">
-        <v>1545.72429875214</v>
+        <v>4842594.352511974</v>
       </c>
       <c r="K15">
-        <v>3017.724171388904</v>
+        <v>3987139.397899262</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>109.3735623888656</v>
+        <v>1116455.521229636</v>
       </c>
       <c r="G16">
-        <v>17.70886943838204</v>
+        <v>4841237.659903395</v>
       </c>
       <c r="H16">
-        <v>2375.334362439625</v>
+        <v>3985797.89693146</v>
       </c>
       <c r="I16">
-        <v>-859.2932850640232</v>
+        <v>1115350.376885429</v>
       </c>
       <c r="J16">
-        <v>1490.733199697162</v>
+        <v>4842545.700888087</v>
       </c>
       <c r="K16">
-        <v>3134.23902947569</v>
+        <v>3987246.261337494</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>102.3694662743681</v>
+        <v>1116449.579717662</v>
       </c>
       <c r="G17">
-        <v>36.46633187471213</v>
+        <v>4841254.172714102</v>
       </c>
       <c r="H17">
-        <v>2441.452470110318</v>
+        <v>3985837.634555835</v>
       </c>
       <c r="I17">
-        <v>-823.9470768792735</v>
+        <v>1115392.006390574</v>
       </c>
       <c r="J17">
-        <v>1435.742100642185</v>
+        <v>4842497.049264201</v>
       </c>
       <c r="K17">
-        <v>3234.237063207962</v>
+        <v>3987337.976109983</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>96.55357080007765</v>
+        <v>1116444.646145643</v>
       </c>
       <c r="G18">
-        <v>55.22379431104219</v>
+        <v>4841270.685524809</v>
       </c>
       <c r="H18">
-        <v>2499.82821655225</v>
+        <v>3985872.718945973</v>
       </c>
       <c r="I18">
-        <v>-787.73050083589</v>
+        <v>1115434.660983985</v>
       </c>
       <c r="J18">
-        <v>1380.751001587207</v>
+        <v>4842448.397640315</v>
       </c>
       <c r="K18">
-        <v>3317.718272585722</v>
+        <v>3987414.54221673</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>91.62503697737988</v>
+        <v>1116440.465314563</v>
       </c>
       <c r="G19">
-        <v>73.9812567473723</v>
+        <v>4841287.198335515</v>
       </c>
       <c r="H19">
-        <v>2552.086256503782</v>
+        <v>3985904.12653514</v>
       </c>
       <c r="I19">
-        <v>-750.6221249260768</v>
+        <v>1115478.365907516</v>
       </c>
       <c r="J19">
-        <v>1325.759902532229</v>
+        <v>4842399.746016429</v>
       </c>
       <c r="K19">
-        <v>3384.682657608969</v>
+        <v>3987475.959657735</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>87.37958591869079</v>
+        <v>1116436.863936471</v>
       </c>
       <c r="G20">
-        <v>92.73871918370236</v>
+        <v>4841303.711146222</v>
       </c>
       <c r="H20">
-        <v>2599.388082413437</v>
+        <v>3985932.555391567</v>
       </c>
       <c r="I20">
-        <v>-712.5999893985643</v>
+        <v>1115523.147024582</v>
       </c>
       <c r="J20">
-        <v>1270.768803477251</v>
+        <v>4842351.094392543</v>
       </c>
       <c r="K20">
-        <v>3435.130218277703</v>
+        <v>3987522.228432997</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>83.67308777463575</v>
+        <v>1116433.719747307</v>
       </c>
       <c r="G21">
-        <v>111.4961816200324</v>
+        <v>4841320.22395693</v>
       </c>
       <c r="H21">
-        <v>2642.592899357766</v>
+        <v>3985958.521905847</v>
       </c>
       <c r="I21">
-        <v>-673.6415937634104</v>
+        <v>1115569.030835458</v>
       </c>
       <c r="J21">
-        <v>1215.777704422273</v>
+        <v>4842302.442768657</v>
       </c>
       <c r="K21">
-        <v>3469.060954591923</v>
+        <v>3987553.348542516</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>80.40060023165627</v>
+        <v>1116430.943725447</v>
       </c>
       <c r="G22">
-        <v>130.2536440563625</v>
+        <v>4841336.736767636</v>
       </c>
       <c r="H22">
-        <v>2682.354199032181</v>
+        <v>3985982.418832828</v>
       </c>
       <c r="I22">
-        <v>-633.7238834768073</v>
+        <v>1115616.044492964</v>
       </c>
       <c r="J22">
-        <v>1160.786605367296</v>
+        <v>4842253.791144771</v>
       </c>
       <c r="K22">
-        <v>3486.47486655163</v>
+        <v>3987569.319986293</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>77.48367852731985</v>
+        <v>1116428.469326901</v>
       </c>
       <c r="G23">
-        <v>149.0111064926926</v>
+        <v>4841353.249578343</v>
       </c>
       <c r="H23">
-        <v>2719.180603614009</v>
+        <v>3986004.551859376</v>
       </c>
       <c r="I23">
-        <v>-592.8232362980166</v>
+        <v>1115664.215818535</v>
       </c>
       <c r="J23">
-        <v>1105.795506312318</v>
+        <v>4842205.139520884</v>
       </c>
       <c r="K23">
-        <v>3487.371954156825</v>
+        <v>3987570.142764327</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>74.86236370944773</v>
+        <v>1116426.24568903</v>
       </c>
       <c r="G24">
-        <v>167.7685689290227</v>
+        <v>4841369.76238905</v>
       </c>
       <c r="H24">
-        <v>2753.475755491909</v>
+        <v>3986025.163578483</v>
       </c>
       <c r="I24">
-        <v>-550.9154483103539</v>
+        <v>1115713.573318681</v>
       </c>
       <c r="J24">
-        <v>1050.80440725734</v>
+        <v>4842156.487896997</v>
       </c>
       <c r="K24">
-        <v>3471.752217407506</v>
+        <v>3987555.816876618</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>72.4899415934199</v>
+        <v>1116424.233184606</v>
       </c>
       <c r="G25">
-        <v>186.5260313653528</v>
+        <v>4841386.275199756</v>
       </c>
       <c r="H25">
-        <v>2785.565357315467</v>
+        <v>3986044.449740603</v>
       </c>
       <c r="I25">
-        <v>-507.9757195979526</v>
+        <v>1115764.14620186</v>
       </c>
       <c r="J25">
-        <v>995.8133082023628</v>
+        <v>4842107.836273111</v>
       </c>
       <c r="K25">
-        <v>3439.615656303674</v>
+        <v>3987526.342323167</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>70.32940827457836</v>
+        <v>1116422.400423551</v>
       </c>
       <c r="G26">
-        <v>205.2834938016829</v>
+        <v>4841402.788010463</v>
       </c>
       <c r="H26">
-        <v>2815.716030251402</v>
+        <v>3986062.570587645</v>
       </c>
       <c r="I26">
-        <v>-463.9786395698346</v>
+        <v>1115815.964395761</v>
       </c>
       <c r="J26">
-        <v>940.822209147385</v>
+        <v>4842059.184649226</v>
       </c>
       <c r="K26">
-        <v>3390.962270845329</v>
+        <v>3987481.719103974</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>68.35102283550788</v>
+        <v>1116420.72217691</v>
       </c>
       <c r="G27">
-        <v>224.0409562380129</v>
+        <v>4841419.300821169</v>
       </c>
       <c r="H27">
-        <v>2844.148792459283</v>
+        <v>3986079.658953667</v>
       </c>
       <c r="I27">
-        <v>-418.8981719225958</v>
+        <v>1115869.058565015</v>
       </c>
       <c r="J27">
-        <v>885.8311100924071</v>
+        <v>4842010.533025339</v>
       </c>
       <c r="K27">
-        <v>3325.792061032472</v>
+        <v>3987421.947219037</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>66.53057330271986</v>
+        <v>1116419.177905883</v>
       </c>
       <c r="G28">
-        <v>242.798418674343</v>
+        <v>4841435.813631876</v>
       </c>
       <c r="H28">
-        <v>2871.048900459188</v>
+        <v>3986095.826179636</v>
       </c>
       <c r="I28">
-        <v>-372.7076392328137</v>
+        <v>1115923.460129341</v>
       </c>
       <c r="J28">
-        <v>830.8400110374296</v>
+        <v>4841961.881401453</v>
       </c>
       <c r="K28">
-        <v>3244.105026865101</v>
+        <v>3987347.026668359</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>64.84812273735346</v>
+        <v>1116417.750698144</v>
       </c>
       <c r="G29">
-        <v>261.5558811106731</v>
+        <v>4841452.326442583</v>
       </c>
       <c r="H29">
-        <v>2896.573171075529</v>
+        <v>3986111.166513985</v>
       </c>
       <c r="I29">
-        <v>-325.3797071700561</v>
+        <v>1115979.20128214</v>
       </c>
       <c r="J29">
-        <v>775.8489119824518</v>
+        <v>4841913.229777567</v>
       </c>
       <c r="K29">
-        <v>3145.901168343217</v>
+        <v>3987256.957451938</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>63.28708598469194</v>
+        <v>1116416.426484654</v>
       </c>
       <c r="G30">
-        <v>280.3133435470031</v>
+        <v>4841468.839253289</v>
       </c>
       <c r="H30">
-        <v>2920.855520380961</v>
+        <v>3986125.760441573</v>
       </c>
       <c r="I30">
-        <v>-276.8863683211522</v>
+        <v>1116036.315009546</v>
       </c>
       <c r="J30">
-        <v>720.857812927474</v>
+        <v>4841864.578153681</v>
       </c>
       <c r="K30">
-        <v>3031.180485466819</v>
+        <v>3987151.739569775</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>61.83353881229383</v>
+        <v>1116415.193453612</v>
       </c>
       <c r="G31">
-        <v>299.0708059833332</v>
+        <v>4841485.352063996</v>
       </c>
       <c r="H31">
-        <v>2944.011216555898</v>
+        <v>3986139.677239696</v>
       </c>
       <c r="I31">
-        <v>-227.198925616148</v>
+        <v>1116094.835109946</v>
       </c>
       <c r="J31">
-        <v>665.8667138724965</v>
+        <v>4841815.926529795</v>
       </c>
       <c r="K31">
-        <v>2899.94297823591</v>
+        <v>3987031.373021869</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>60.4756933720514</v>
+        <v>1116414.041605492</v>
       </c>
       <c r="G32">
-        <v>317.8282684196633</v>
+        <v>4841501.864874703</v>
       </c>
       <c r="H32">
-        <v>2966.140189155828</v>
+        <v>3986152.976966987</v>
       </c>
       <c r="I32">
-        <v>-176.2879753461422</v>
+        <v>1116154.796213981</v>
       </c>
       <c r="J32">
-        <v>610.8756148175187</v>
+        <v>4841767.274905909</v>
       </c>
       <c r="K32">
-        <v>2752.188646650486</v>
+        <v>3986895.85780822</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>59.20349467256666</v>
+        <v>1116412.962410735</v>
       </c>
       <c r="G33">
-        <v>336.5857308559933</v>
+        <v>4841518.377685409</v>
       </c>
       <c r="H33">
-        <v>2987.329635376428</v>
+        <v>3986165.712029806</v>
       </c>
       <c r="I33">
-        <v>-124.1233897629526</v>
+        <v>1116216.233805039</v>
       </c>
       <c r="J33">
-        <v>555.8845157625411</v>
+        <v>4841718.623282023</v>
       </c>
       <c r="K33">
-        <v>2587.917490710551</v>
+        <v>3986745.193928828</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>58.00830641289875</v>
+        <v>1116411.948543243</v>
       </c>
       <c r="G34">
-        <v>355.3431932923235</v>
+        <v>4841534.890496116</v>
       </c>
       <c r="H34">
-        <v>3007.656095246646</v>
+        <v>3986177.928429453</v>
       </c>
       <c r="I34">
-        <v>-70.67429925031561</v>
+        <v>1116279.184240255</v>
       </c>
       <c r="J34">
-        <v>500.8934167075633</v>
+        <v>4841669.971658137</v>
       </c>
       <c r="K34">
-        <v>2407.129510416101</v>
+        <v>3986579.381383694</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>56.88266370595537</v>
+        <v>1116410.993670621</v>
       </c>
       <c r="G35">
-        <v>374.1006557286536</v>
+        <v>4841551.403306822</v>
       </c>
       <c r="H35">
-        <v>3027.187120538909</v>
+        <v>3986189.666765199</v>
       </c>
       <c r="I35">
-        <v>-15.90907405606684</v>
+        <v>1116343.684772025</v>
       </c>
       <c r="J35">
-        <v>445.9023176525855</v>
+        <v>4841621.32003425</v>
       </c>
       <c r="K35">
-        <v>2209.824705767138</v>
+        <v>3986398.420172818</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>55.82007649460498</v>
+        <v>1116410.092287411</v>
       </c>
       <c r="G36">
-        <v>392.8581181649836</v>
+        <v>4841567.916117529</v>
       </c>
       <c r="H36">
-        <v>3045.982629261461</v>
+        <v>3986200.963048348</v>
       </c>
       <c r="I36">
-        <v>40.20469442550714</v>
+        <v>1116409.773570051</v>
       </c>
       <c r="J36">
-        <v>390.9112185976079</v>
+        <v>4841572.668410364</v>
       </c>
       <c r="K36">
-        <v>1996.003076763664</v>
+        <v>3986202.310296199</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>54.81487182471925</v>
+        <v>1116409.239581296</v>
       </c>
       <c r="G37">
-        <v>411.6155806013137</v>
+        <v>4841584.428928236</v>
       </c>
       <c r="H37">
-        <v>3064.096014241752</v>
+        <v>3986211.849368508</v>
       </c>
       <c r="I37">
-        <v>97.70021283221938</v>
+        <v>1116477.489743927</v>
       </c>
       <c r="J37">
-        <v>335.9201195426301</v>
+        <v>4841524.016786478</v>
       </c>
       <c r="K37">
-        <v>1765.664623405675</v>
+        <v>3985991.051753838</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>53.86206621623854</v>
+        <v>1116408.431324836</v>
       </c>
       <c r="G38">
-        <v>430.3730430376438</v>
+        <v>4841600.941738943</v>
       </c>
       <c r="H38">
-        <v>3081.575057502952</v>
+        <v>3986222.35444314</v>
       </c>
       <c r="I38">
-        <v>156.6115054847904</v>
+        <v>1116546.873366288</v>
       </c>
       <c r="J38">
-        <v>280.9290204876526</v>
+        <v>4841475.365162592</v>
       </c>
       <c r="K38">
-        <v>1518.809345693174</v>
+        <v>3985764.644545733</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>52.95726157438919</v>
+        <v>1116407.663787166</v>
       </c>
       <c r="G39">
-        <v>449.1305054739739</v>
+        <v>4841617.45454965</v>
       </c>
       <c r="H39">
-        <v>3098.462689881802</v>
+        <v>3986232.504074091</v>
       </c>
       <c r="I39">
-        <v>216.9734345215349</v>
+        <v>1116617.965496517</v>
       </c>
       <c r="J39">
-        <v>225.9379214326747</v>
+        <v>4841426.713538705</v>
       </c>
       <c r="K39">
-        <v>1255.437243626159</v>
+        <v>3985523.088671886</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>52.09655967788108</v>
+        <v>1116406.933661459</v>
       </c>
       <c r="G40">
-        <v>467.8879679103039</v>
+        <v>4841633.967360357</v>
       </c>
       <c r="H40">
-        <v>3114.797626292977</v>
+        <v>3986242.321529402</v>
       </c>
       <c r="I40">
-        <v>278.8217205288533</v>
+        <v>1116690.80820505</v>
       </c>
       <c r="J40">
-        <v>170.9468223776969</v>
+        <v>4841378.061914819</v>
       </c>
       <c r="K40">
-        <v>975.5483172046312</v>
+        <v>3985266.384132298</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>51.27649145004873</v>
+        <v>1116406.23800493</v>
       </c>
       <c r="G41">
-        <v>486.645430346634</v>
+        <v>4841650.480171063</v>
       </c>
       <c r="H41">
-        <v>3130.614900296262</v>
+        <v>3986251.827864582</v>
       </c>
       <c r="I41">
-        <v>342.1929636797212</v>
+        <v>1116765.444598266</v>
       </c>
       <c r="J41">
-        <v>115.9557233227194</v>
+        <v>4841329.410290933</v>
       </c>
       <c r="K41">
-        <v>679.142566428591</v>
+        <v>3984994.530926966</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>50.49395808550585</v>
+        <v>1116405.574188888</v>
       </c>
       <c r="G42">
-        <v>505.402892782964</v>
+        <v>4841666.99298177</v>
       </c>
       <c r="H42">
-        <v>3145.9463165335</v>
+        <v>3986261.042194529</v>
       </c>
       <c r="I42">
-        <v>407.124665392706</v>
+        <v>1116841.918844001</v>
       </c>
       <c r="J42">
-        <v>60.96462426774155</v>
+        <v>4841280.758667047</v>
       </c>
       <c r="K42">
-        <v>366.2199912980367</v>
+        <v>3984707.529055892</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>49.746181753832</v>
+        <v>1116404.939856926</v>
       </c>
       <c r="G43">
-        <v>524.1603552192943</v>
+        <v>4841683.505792477</v>
       </c>
       <c r="H43">
-        <v>3160.820835727059</v>
+        <v>3986269.981924919</v>
       </c>
       <c r="I43">
-        <v>473.6552505243022</v>
+        <v>1116920.276197682</v>
       </c>
       <c r="J43">
-        <v>5.973525212763738</v>
+        <v>4841232.107043161</v>
       </c>
       <c r="K43">
-        <v>36.78059181296972</v>
+        <v>3984405.378519075</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>49.03066409244713</v>
+        <v>1116404.332889706</v>
       </c>
       <c r="G44">
-        <v>542.9178176556243</v>
+        <v>4841700.018603183</v>
       </c>
       <c r="H44">
-        <v>3175.264903953985</v>
+        <v>3986278.662950101</v>
       </c>
       <c r="I44">
-        <v>541.8240901077473</v>
+        <v>1117000.56302911</v>
       </c>
       <c r="J44">
-        <v>-49.01757384221381</v>
+        <v>4841183.455419275</v>
       </c>
       <c r="K44">
-        <v>-309.1756320266094</v>
+        <v>3984088.079316515</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>48.34515107509415</v>
+        <v>1116403.751375156</v>
       </c>
       <c r="G45">
-        <v>561.6752800919543</v>
+        <v>4841716.53141389</v>
       </c>
       <c r="H45">
-        <v>3189.302735602741</v>
+        <v>3986287.099823156</v>
       </c>
       <c r="I45">
-        <v>611.6715246517527</v>
+        <v>1117082.8268499</v>
       </c>
       <c r="J45">
-        <v>-104.0086728971916</v>
+        <v>4841134.803795389</v>
       </c>
       <c r="K45">
-        <v>-671.6486802207025</v>
+        <v>3983755.631448214</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>47.68760313024787</v>
+        <v>1116403.193583126</v>
       </c>
       <c r="G46">
-        <v>580.4327425282845</v>
+        <v>4841733.044224597</v>
       </c>
       <c r="H46">
-        <v>3202.956557617379</v>
+        <v>3986295.305902695</v>
       </c>
       <c r="I46">
-        <v>683.2388880129433</v>
+        <v>1117167.116341595</v>
       </c>
       <c r="J46">
-        <v>-158.9997719521694</v>
+        <v>4841086.152171502</v>
       </c>
       <c r="K46">
-        <v>-1050.63855276931</v>
+        <v>3983408.034914169</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>47.05616960699012</v>
+        <v>1116402.657943726</v>
       </c>
       <c r="G47">
-        <v>599.1902049646145</v>
+        <v>4841749.557035304</v>
       </c>
       <c r="H47">
-        <v>3216.246821215952</v>
+        <v>3986303.293480098</v>
       </c>
       <c r="I47">
-        <v>756.568531856136</v>
+        <v>1117253.481384478</v>
       </c>
       <c r="J47">
-        <v>-213.9908710071473</v>
+        <v>4841037.500547616</v>
       </c>
       <c r="K47">
-        <v>-1446.145249672429</v>
+        <v>3983045.289714382</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>46.44916686024043</v>
+        <v>1116402.143028735</v>
       </c>
       <c r="G48">
-        <v>617.9476674009445</v>
+        <v>4841766.069846011</v>
       </c>
       <c r="H48">
-        <v>3229.192386146316</v>
+        <v>3986311.073890256</v>
       </c>
       <c r="I48">
-        <v>831.7038507169316</v>
+        <v>1117341.973087088</v>
       </c>
       <c r="J48">
-        <v>-268.9819700621246</v>
+        <v>4840988.84892373</v>
       </c>
       <c r="K48">
-        <v>-1858.168770930059</v>
+        <v>3982667.395848853</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>45.86505936437902</v>
+        <v>1116401.64753558</v>
       </c>
       <c r="G49">
-        <v>636.7051298372747</v>
+        <v>4841782.582656717</v>
       </c>
       <c r="H49">
-        <v>3241.810681646158</v>
+        <v>3986318.657608309</v>
       </c>
       <c r="I49">
-        <v>908.6893076814492</v>
+        <v>1117432.643816464</v>
       </c>
       <c r="J49">
-        <v>-323.9730691171023</v>
+        <v>4840940.197299845</v>
       </c>
       <c r="K49">
-        <v>-2286.709116542204</v>
+        <v>3982274.353317581</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>45.30244337288567</v>
+        <v>1116401.170273476</v>
       </c>
       <c r="G50">
-        <v>655.4625922736047</v>
+        <v>4841799.095467424</v>
       </c>
       <c r="H50">
-        <v>3254.117847554638</v>
+        <v>3986326.05433446</v>
       </c>
       <c r="I50">
-        <v>987.5704606983959</v>
+        <v>1117525.547229134</v>
       </c>
       <c r="J50">
-        <v>-378.9641681720802</v>
+        <v>4840891.545675958</v>
       </c>
       <c r="K50">
-        <v>-2731.766286508863</v>
+        <v>3981866.162120566</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>44.76003272813961</v>
+        <v>1116400.710151386</v>
       </c>
       <c r="G51">
-        <v>674.2200547099347</v>
+        <v>4841815.608278131</v>
       </c>
       <c r="H51">
-        <v>3266.128858442175</v>
+        <v>3986333.273068568</v>
       </c>
       <c r="I51">
-        <v>1068.393989539055</v>
+        <v>1117620.738302873</v>
       </c>
       <c r="J51">
-        <v>-433.955267227058</v>
+        <v>4840842.894052071</v>
       </c>
       <c r="K51">
-        <v>-3193.340280830035</v>
+        <v>3981442.822257809</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>44.23664649487382</v>
+        <v>1116400.266167534</v>
       </c>
       <c r="G52">
-        <v>692.977517146265</v>
+        <v>4841832.121088837</v>
       </c>
       <c r="H52">
-        <v>3277.857633153212</v>
+        <v>3986340.322175995</v>
       </c>
       <c r="I52">
-        <v>1151.207723421133</v>
+        <v>1117718.273369228</v>
       </c>
       <c r="J52">
-        <v>-488.9463662820358</v>
+        <v>4840794.242428185</v>
       </c>
       <c r="K52">
-        <v>-3671.431099505719</v>
+        <v>3981004.333729309</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>43.73119814666773</v>
+        <v>1116399.837400229</v>
       </c>
       <c r="G53">
-        <v>711.734979582595</v>
+        <v>4841848.633899544</v>
       </c>
       <c r="H53">
-        <v>3289.317131771847</v>
+        <v>3986347.209445877</v>
       </c>
       <c r="I53">
-        <v>1236.060669312816</v>
+        <v>1117818.210146862</v>
       </c>
       <c r="J53">
-        <v>-543.9374653370131</v>
+        <v>4840745.590804299</v>
       </c>
       <c r="K53">
-        <v>-4166.038742535914</v>
+        <v>3980550.696535067</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>43.24268608015957</v>
+        <v>1116399.42299982</v>
       </c>
       <c r="G54">
-        <v>730.492442018925</v>
+        <v>4841865.146710251</v>
       </c>
       <c r="H54">
-        <v>3300.519441704348</v>
+        <v>3986353.942142863</v>
       </c>
       <c r="I54">
-        <v>1323.003040933806</v>
+        <v>1117920.607775704</v>
       </c>
       <c r="J54">
-        <v>-598.9285643919909</v>
+        <v>4840696.939180412</v>
       </c>
       <c r="K54">
-        <v>-4677.163209920625</v>
+        <v>3980081.910675082</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G55">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H55">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I55">
-        <v>-1434.43892022854</v>
+        <v>1114862.936124125</v>
       </c>
       <c r="J55">
-        <v>2016.114863228505</v>
+        <v>4843229.192456</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984376.316891968</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G56">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H56">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I56">
-        <v>-1406.119276409187</v>
+        <v>1114892.550162524</v>
       </c>
       <c r="J56">
-        <v>1967.07126814808</v>
+        <v>4843180.540808317</v>
       </c>
       <c r="K56">
-        <v>245.6655802984115</v>
+        <v>3984680.1133411</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G57">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H57">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I57">
-        <v>-1377.102287414378</v>
+        <v>1114922.893419374</v>
       </c>
       <c r="J57">
-        <v>1918.027673067655</v>
+        <v>4843131.889160635</v>
       </c>
       <c r="K57">
-        <v>479.0811486725506</v>
+        <v>3984968.761106724</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G58">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H58">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I58">
-        <v>-1347.370781760711</v>
+        <v>1114953.983851009</v>
       </c>
       <c r="J58">
-        <v>1868.98407798723</v>
+        <v>4843083.237512954</v>
       </c>
       <c r="K58">
-        <v>700.2467051224189</v>
+        <v>3985242.260188843</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G59">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H59">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I59">
-        <v>-1316.907165132807</v>
+        <v>1114985.839855919</v>
       </c>
       <c r="J59">
-        <v>1819.940482906806</v>
+        <v>4843034.585865272</v>
       </c>
       <c r="K59">
-        <v>909.1622496480152</v>
+        <v>3985500.610587454</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G60">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H60">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I60">
-        <v>-1285.693409971454</v>
+        <v>1115018.480285644</v>
       </c>
       <c r="J60">
-        <v>1770.896887826381</v>
+        <v>4842985.934217591</v>
       </c>
       <c r="K60">
-        <v>1105.827782249341</v>
+        <v>3985743.81230256</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G61">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H61">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I61">
-        <v>-1253.711044805381</v>
+        <v>1115051.924455922</v>
       </c>
       <c r="J61">
-        <v>1721.853292745956</v>
+        <v>4842937.282569909</v>
       </c>
       <c r="K61">
-        <v>1290.243302926395</v>
+        <v>3985971.865334158</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G62">
-        <v>-70.79268096039353</v>
+        <v>4841117.504673453</v>
       </c>
       <c r="H62">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I62">
-        <v>-1220.94114332033</v>
+        <v>1115086.192158125</v>
       </c>
       <c r="J62">
-        <v>1672.809697665531</v>
+        <v>4842888.630922226</v>
       </c>
       <c r="K62">
-        <v>1462.408811679178</v>
+        <v>3986184.76968225</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>170.3098474390966</v>
+        <v>1116577.833593142</v>
       </c>
       <c r="G63">
-        <v>-59.10281665096109</v>
+        <v>4841134.017468587</v>
       </c>
       <c r="H63">
-        <v>690.4228139916038</v>
+        <v>3985226.891357847</v>
       </c>
       <c r="I63">
-        <v>-1187.364313158966</v>
+        <v>1115121.303670969</v>
       </c>
       <c r="J63">
-        <v>1623.766102585107</v>
+        <v>4842839.979274545</v>
       </c>
       <c r="K63">
-        <v>1622.324308507689</v>
+        <v>3986382.525346835</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>132.1803093564152</v>
+        <v>1116529.153058594</v>
       </c>
       <c r="G64">
-        <v>-47.41295234152864</v>
+        <v>4841150.53026372</v>
       </c>
       <c r="H64">
-        <v>850.5962609440039</v>
+        <v>3985426.145692775</v>
       </c>
       <c r="I64">
-        <v>-1152.960684444995</v>
+        <v>1115157.279772515</v>
       </c>
       <c r="J64">
-        <v>1574.722507504682</v>
+        <v>4842791.327626863</v>
       </c>
       <c r="K64">
-        <v>1769.989793411928</v>
+        <v>3986565.132327913</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>109.7811185169517</v>
+        <v>1116500.555686626</v>
       </c>
       <c r="G65">
-        <v>-35.72308803209621</v>
+        <v>4841167.043058855</v>
       </c>
       <c r="H65">
-        <v>946.0037575299173</v>
+        <v>3985544.831764911</v>
       </c>
       <c r="I65">
-        <v>-1117.709898024701</v>
+        <v>1115194.141752464</v>
       </c>
       <c r="J65">
-        <v>1525.678912424257</v>
+        <v>4842742.675979181</v>
       </c>
       <c r="K65">
-        <v>1905.405266391896</v>
+        <v>3986732.590625485</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>95.64110597129981</v>
+        <v>1116482.502927431</v>
       </c>
       <c r="G66">
-        <v>-24.03322372266377</v>
+        <v>4841183.555853989</v>
       </c>
       <c r="H66">
-        <v>1014.185046993691</v>
+        <v>3985629.648678982</v>
       </c>
       <c r="I66">
-        <v>-1081.591093418936</v>
+        <v>1115231.911424757</v>
       </c>
       <c r="J66">
-        <v>1476.635317343832</v>
+        <v>4842694.0243315</v>
       </c>
       <c r="K66">
-        <v>2028.570727447594</v>
+        <v>3986884.90023955</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>85.7799186196428</v>
+        <v>1116469.913006449</v>
       </c>
       <c r="G67">
-        <v>-12.34335941323133</v>
+        <v>4841200.068649122</v>
       </c>
       <c r="H67">
-        <v>1067.277780570979</v>
+        <v>3985695.695564528</v>
       </c>
       <c r="I67">
-        <v>-1044.582896478445</v>
+        <v>1115270.611140483</v>
       </c>
       <c r="J67">
-        <v>1427.591722263408</v>
+        <v>4842645.372683818</v>
       </c>
       <c r="K67">
-        <v>2139.486176579019</v>
+        <v>3987022.061170109</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>78.42317754643938</v>
+        <v>1116460.520548371</v>
       </c>
       <c r="G68">
-        <v>-0.6534951037989036</v>
+        <v>4841216.581444256</v>
       </c>
       <c r="H68">
-        <v>1110.764847618579</v>
+        <v>3985749.793086854</v>
       </c>
       <c r="I68">
-        <v>-1006.663406735212</v>
+        <v>1115310.263801105</v>
       </c>
       <c r="J68">
-        <v>1378.548127182983</v>
+        <v>4842596.721036136</v>
       </c>
       <c r="K68">
-        <v>2238.151613786173</v>
+        <v>3987144.073417161</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>72.67123336562786</v>
+        <v>1116453.176957772</v>
       </c>
       <c r="G69">
-        <v>11.03636920563354</v>
+        <v>4841233.09423939</v>
       </c>
       <c r="H69">
-        <v>1147.595219005857</v>
+        <v>3985795.609739336</v>
       </c>
       <c r="I69">
-        <v>-967.8101844423422</v>
+        <v>1115350.892872016</v>
       </c>
       <c r="J69">
-        <v>1329.504532102558</v>
+        <v>4842548.069388454</v>
       </c>
       <c r="K69">
-        <v>2324.567039069055</v>
+        <v>3987250.936980707</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>68.01749171056265</v>
+        <v>1116447.235458273</v>
       </c>
       <c r="G70">
-        <v>22.72623351506598</v>
+        <v>4841249.607034524</v>
       </c>
       <c r="H70">
-        <v>1179.538858374031</v>
+        <v>3985835.347340908</v>
       </c>
       <c r="I70">
-        <v>-928.0002372948195</v>
+        <v>1115392.522396419</v>
       </c>
       <c r="J70">
-        <v>1280.460937022134</v>
+        <v>4842499.417740772</v>
       </c>
       <c r="K70">
-        <v>2398.732452427666</v>
+        <v>3987342.651860745</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>64.15322791581143</v>
+        <v>1116442.301896613</v>
       </c>
       <c r="G71">
-        <v>34.41609782449841</v>
+        <v>4841266.119829658</v>
       </c>
       <c r="H71">
-        <v>1207.74193099487</v>
+        <v>3985870.431710914</v>
       </c>
       <c r="I71">
-        <v>-887.2100068232691</v>
+        <v>1115435.177009563</v>
       </c>
       <c r="J71">
-        <v>1231.417341941709</v>
+        <v>4842450.766093091</v>
       </c>
       <c r="K71">
-        <v>2460.647853862006</v>
+        <v>3987419.218057277</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>60.87855509948446</v>
+        <v>1116438.121074312</v>
       </c>
       <c r="G72">
-        <v>46.10596213393086</v>
+        <v>4841282.632624791</v>
       </c>
       <c r="H72">
-        <v>1232.989356263202</v>
+        <v>3985901.839282058</v>
       </c>
       <c r="I72">
-        <v>-845.4153544526804</v>
+        <v>1115478.881953313</v>
       </c>
       <c r="J72">
-        <v>1182.373746861284</v>
+        <v>4842402.11444541</v>
       </c>
       <c r="K72">
-        <v>2510.313243372075</v>
+        <v>3987480.635570303</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>58.05774394649823</v>
+        <v>1116434.519703781</v>
       </c>
       <c r="G73">
-        <v>57.79582644336329</v>
+        <v>4841299.145419925</v>
       </c>
       <c r="H73">
-        <v>1255.84228599071</v>
+        <v>3985930.268122172</v>
       </c>
       <c r="I73">
-        <v>-802.591547217841</v>
+        <v>1115523.663091096</v>
       </c>
       <c r="J73">
-        <v>1133.330151780859</v>
+        <v>4842353.462797727</v>
       </c>
       <c r="K73">
-        <v>2547.728620957871</v>
+        <v>3987526.904399822</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>55.59503005373659</v>
+        <v>1116431.375521219</v>
       </c>
       <c r="G74">
-        <v>69.48569075279572</v>
+        <v>4841315.65821506</v>
       </c>
       <c r="H74">
-        <v>1276.715827900158</v>
+        <v>3985956.23462155</v>
       </c>
       <c r="I74">
-        <v>-758.7132431270243</v>
+        <v>1115569.546923199</v>
       </c>
       <c r="J74">
-        <v>1084.286556700434</v>
+        <v>4842304.811150045</v>
       </c>
       <c r="K74">
-        <v>2572.893986619397</v>
+        <v>3987558.024545834</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>53.42068644886758</v>
+        <v>1116428.599505188</v>
       </c>
       <c r="G75">
-        <v>81.17555506222817</v>
+        <v>4841332.171010193</v>
       </c>
       <c r="H75">
-        <v>1295.925703414674</v>
+        <v>3985980.131534819</v>
       </c>
       <c r="I75">
-        <v>-713.7544761652704</v>
+        <v>1115616.560602455</v>
       </c>
       <c r="J75">
-        <v>1035.24296162001</v>
+        <v>4842256.159502364</v>
       </c>
       <c r="K75">
-        <v>2585.809340356651</v>
+        <v>3987573.996008339</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>51.48259196556422</v>
+        <v>1116426.125111839</v>
       </c>
       <c r="G76">
-        <v>92.86541937166061</v>
+        <v>4841348.683805327</v>
       </c>
       <c r="H76">
-        <v>1313.717643151476</v>
+        <v>3986002.264548665</v>
       </c>
       <c r="I76">
-        <v>-667.6886409283906</v>
+        <v>1115664.731950311</v>
       </c>
       <c r="J76">
-        <v>986.1993665395851</v>
+        <v>4842207.507854682</v>
       </c>
       <c r="K76">
-        <v>2586.474682169634</v>
+        <v>3987574.818787339</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>49.74090799099383</v>
+        <v>1116423.901478636</v>
       </c>
       <c r="G77">
-        <v>104.5552836810931</v>
+        <v>4841365.196600461</v>
       </c>
       <c r="H77">
-        <v>1330.286658845644</v>
+        <v>3986022.876255945</v>
       </c>
       <c r="I77">
-        <v>-620.488476878594</v>
+        <v>1115714.08947329</v>
       </c>
       <c r="J77">
-        <v>937.1557714591602</v>
+        <v>4842158.856207</v>
       </c>
       <c r="K77">
-        <v>2574.890012058345</v>
+        <v>3987560.492882831</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>48.16459615228218</v>
+        <v>1116421.888978438</v>
       </c>
       <c r="G78">
-        <v>116.2451479905255</v>
+        <v>4841381.709395595</v>
       </c>
       <c r="H78">
-        <v>1345.790107208465</v>
+        <v>3986042.162406998</v>
       </c>
       <c r="I78">
-        <v>-572.1260522124255</v>
+        <v>1115764.662379866</v>
       </c>
       <c r="J78">
-        <v>888.1121763787356</v>
+        <v>4842110.204559318</v>
       </c>
       <c r="K78">
-        <v>2551.055330022785</v>
+        <v>3987531.018294816</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>46.72906989183615</v>
+        <v>1116420.056221231</v>
       </c>
       <c r="G79">
-        <v>127.9350122999579</v>
+        <v>4841398.222190729</v>
       </c>
       <c r="H79">
-        <v>1360.356800916188</v>
+        <v>3986060.283243641</v>
       </c>
       <c r="I79">
-        <v>-522.5727473314678</v>
+        <v>1115816.480597739</v>
       </c>
       <c r="J79">
-        <v>839.0685812983107</v>
+        <v>4842061.552911636</v>
       </c>
       <c r="K79">
-        <v>2514.970636062953</v>
+        <v>3987486.395023295</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>45.41456840912238</v>
+        <v>1116418.377978114</v>
       </c>
       <c r="G80">
-        <v>139.6248766093904</v>
+        <v>4841414.734985862</v>
       </c>
       <c r="H80">
-        <v>1374.093520465592</v>
+        <v>3986077.371599857</v>
       </c>
       <c r="I80">
-        <v>-471.7992379060211</v>
+        <v>1115869.574791556</v>
       </c>
       <c r="J80">
-        <v>790.024986217886</v>
+        <v>4842012.901263954</v>
       </c>
       <c r="K80">
-        <v>2466.63593017885</v>
+        <v>3987426.623068268</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>44.20500450777272</v>
+        <v>1116416.83371033</v>
       </c>
       <c r="G81">
-        <v>151.3147409188228</v>
+        <v>4841431.247780996</v>
       </c>
       <c r="H81">
-        <v>1387.089768833643</v>
+        <v>3986093.538816549</v>
       </c>
       <c r="I81">
-        <v>-419.7754775217451</v>
+        <v>1115923.976381049</v>
       </c>
       <c r="J81">
-        <v>740.9813911374614</v>
+        <v>4841964.249616273</v>
       </c>
       <c r="K81">
-        <v>2406.051212370476</v>
+        <v>3987351.702429734</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>43.08713145882538</v>
+        <v>1116415.406505588</v>
       </c>
       <c r="G82">
-        <v>163.0046052282553</v>
+        <v>4841447.760576131</v>
       </c>
       <c r="H82">
-        <v>1399.421308927999</v>
+        <v>3986108.879142096</v>
       </c>
       <c r="I82">
-        <v>-366.4706798989877</v>
+        <v>1115979.717559635</v>
       </c>
       <c r="J82">
-        <v>691.9377960570365</v>
+        <v>4841915.597968591</v>
       </c>
       <c r="K82">
-        <v>2333.216482637829</v>
+        <v>3987261.633107693</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>42.04992956407813</v>
+        <v>1116414.082294879</v>
       </c>
       <c r="G83">
-        <v>174.6944695376877</v>
+        <v>4841464.273371264</v>
       </c>
       <c r="H83">
-        <v>1411.152839616808</v>
+        <v>3986123.47306131</v>
       </c>
       <c r="I83">
-        <v>-311.8533006742847</v>
+        <v>1116036.831313464</v>
       </c>
       <c r="J83">
-        <v>642.8942009766117</v>
+        <v>4841866.946320909</v>
       </c>
       <c r="K83">
-        <v>2248.131740980912</v>
+        <v>3987156.415102146</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>41.08414712574325</v>
+        <v>1116412.849266425</v>
       </c>
       <c r="G84">
-        <v>186.3843338471201</v>
+        <v>4841480.786166398</v>
       </c>
       <c r="H84">
-        <v>1422.340050412604</v>
+        <v>3986137.389851447</v>
       </c>
       <c r="I84">
-        <v>-255.8910187332411</v>
+        <v>1116095.351440936</v>
       </c>
       <c r="J84">
-        <v>593.8506058961871</v>
+        <v>4841818.294673227</v>
       </c>
       <c r="K84">
-        <v>2150.796987399724</v>
+        <v>3987036.048413092</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>40.18195192694851</v>
+        <v>1116411.697420724</v>
       </c>
       <c r="G85">
-        <v>198.0741981565526</v>
+        <v>4841497.298961532</v>
       </c>
       <c r="H85">
-        <v>1433.031220278521</v>
+        <v>3986150.689571106</v>
       </c>
       <c r="I85">
-        <v>-198.5507170837546</v>
+        <v>1116155.31257271</v>
       </c>
       <c r="J85">
-        <v>544.8070108157623</v>
+        <v>4841769.643025545</v>
       </c>
       <c r="K85">
-        <v>2041.212221894263</v>
+        <v>3986900.533040531</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>39.33666311529766</v>
+        <v>1116410.618228232</v>
       </c>
       <c r="G86">
-        <v>209.764062465985</v>
+        <v>4841513.811756666</v>
       </c>
       <c r="H86">
-        <v>1443.26847679308</v>
+        <v>3986163.424626617</v>
       </c>
       <c r="I86">
-        <v>-139.7984632582594</v>
+        <v>1116216.750192191</v>
       </c>
       <c r="J86">
-        <v>495.7634157353377</v>
+        <v>4841720.991377864</v>
       </c>
       <c r="K86">
-        <v>1919.377444464532</v>
+        <v>3986749.868984464</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>38.54254246093533</v>
+        <v>1116409.60436287</v>
       </c>
       <c r="G87">
-        <v>221.4539267754174</v>
+        <v>4841530.3245518</v>
       </c>
       <c r="H87">
-        <v>1453.088798738164</v>
+        <v>3986175.641019253</v>
       </c>
       <c r="I87">
-        <v>-79.59948923339374</v>
+        <v>1116279.700656529</v>
       </c>
       <c r="J87">
-        <v>446.7198206549128</v>
+        <v>4841672.339730183</v>
       </c>
       <c r="K87">
-        <v>1785.292655110529</v>
+        <v>3986584.05624489</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>37.79463005819433</v>
+        <v>1116408.649492253</v>
       </c>
       <c r="G88">
-        <v>233.1437910848499</v>
+        <v>4841546.837346933</v>
       </c>
       <c r="H88">
-        <v>1462.52482239955</v>
+        <v>3986187.379348263</v>
       </c>
       <c r="I88">
-        <v>-17.91817085520661</v>
+        <v>1116344.201218139</v>
       </c>
       <c r="J88">
-        <v>397.676225574488</v>
+        <v>4841623.6880825</v>
       </c>
       <c r="K88">
-        <v>1638.957853832254</v>
+        <v>3986403.094821809</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>37.08861370908036</v>
+        <v>1116407.748110935</v>
       </c>
       <c r="G89">
-        <v>244.8336553942823</v>
+        <v>4841563.350142067</v>
       </c>
       <c r="H89">
-        <v>1471.605495962757</v>
+        <v>3986198.67562493</v>
       </c>
       <c r="I89">
-        <v>45.28199324227115</v>
+        <v>1116410.290046739</v>
       </c>
       <c r="J89">
-        <v>348.6326304940634</v>
+        <v>4841575.036434818</v>
       </c>
       <c r="K89">
-        <v>1480.373040629709</v>
+        <v>3986206.984715222</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>36.42072412452275</v>
+        <v>1116406.895406611</v>
       </c>
       <c r="G90">
-        <v>256.5235197037147</v>
+        <v>4841579.862937202</v>
       </c>
       <c r="H90">
-        <v>1480.356615102904</v>
+        <v>3986209.561938844</v>
       </c>
       <c r="I90">
-        <v>110.0384032375644</v>
+        <v>1116478.006251942</v>
       </c>
       <c r="J90">
-        <v>299.5890354136386</v>
+        <v>4841526.384787137</v>
       </c>
       <c r="K90">
-        <v>1309.538215502891</v>
+        <v>3985995.725925128</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>35.78765012369794</v>
+        <v>1116406.087151848</v>
       </c>
       <c r="G91">
-        <v>268.2133840131472</v>
+        <v>4841596.375732335</v>
       </c>
       <c r="H91">
-        <v>1488.801264747407</v>
+        <v>3986220.067007447</v>
       </c>
       <c r="I91">
-        <v>176.3893802541875</v>
+        <v>1116547.389906401</v>
       </c>
       <c r="J91">
-        <v>250.545440333214</v>
+        <v>4841477.733139455</v>
       </c>
       <c r="K91">
-        <v>1126.453378451803</v>
+        <v>3985769.318451528</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>35.18646947416988</v>
+        <v>1116405.319615789</v>
       </c>
       <c r="G92">
-        <v>279.9032483225797</v>
+        <v>4841612.888527469</v>
       </c>
       <c r="H92">
-        <v>1496.960186070126</v>
+        <v>3986230.216632574</v>
       </c>
       <c r="I92">
-        <v>244.3741890380647</v>
+        <v>1116618.482069519</v>
       </c>
       <c r="J92">
-        <v>201.5018452527891</v>
+        <v>4841429.081491773</v>
       </c>
       <c r="K92">
-        <v>931.1185294764424</v>
+        <v>3985527.762294421</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>34.61459207516008</v>
+        <v>1116404.589491616</v>
       </c>
       <c r="G93">
-        <v>291.593112632012</v>
+        <v>4841629.401322603</v>
       </c>
       <c r="H93">
-        <v>1504.852083406624</v>
+        <v>3986240.034082252</v>
       </c>
       <c r="I93">
-        <v>314.0330611933682</v>
+        <v>1116691.324811751</v>
       </c>
       <c r="J93">
-        <v>152.4582501723643</v>
+        <v>4841380.429844092</v>
       </c>
       <c r="K93">
-        <v>723.5336685768109</v>
+        <v>3985271.057453807</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>34.0697129630703</v>
+        <v>1116403.893836547</v>
       </c>
       <c r="G94">
-        <v>303.2829769414445</v>
+        <v>4841645.914117737</v>
       </c>
       <c r="H94">
-        <v>1512.493882519584</v>
+        <v>3986249.540411976</v>
       </c>
       <c r="I94">
-        <v>385.4072189905077</v>
+        <v>1116765.961239495</v>
       </c>
       <c r="J94">
-        <v>103.4146550919397</v>
+        <v>4841331.778196409</v>
       </c>
       <c r="K94">
-        <v>503.6987957529083</v>
+        <v>3984999.203929687</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>33.54977319418082</v>
+        <v>1116403.2300219</v>
       </c>
       <c r="G95">
-        <v>314.9728412508769</v>
+        <v>4841662.426912871</v>
       </c>
       <c r="H95">
-        <v>1519.900949184663</v>
+        <v>3986258.754736636</v>
       </c>
       <c r="I95">
-        <v>458.5388997603822</v>
+        <v>1116842.435520609</v>
       </c>
       <c r="J95">
-        <v>54.37106001151488</v>
+        <v>4841283.126548728</v>
       </c>
       <c r="K95">
-        <v>271.6139110047336</v>
+        <v>3984712.20172206</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>33.05292709063016</v>
+        <v>1116402.59569127</v>
       </c>
       <c r="G96">
-        <v>326.6627055603094</v>
+        <v>4841678.939708005</v>
       </c>
       <c r="H96">
-        <v>1527.087275194786</v>
+        <v>3986267.694461897</v>
       </c>
       <c r="I96">
-        <v>533.4713808893016</v>
+        <v>1116920.79291054</v>
       </c>
       <c r="J96">
-        <v>5.327464931090048</v>
+        <v>4841234.474901046</v>
       </c>
       <c r="K96">
-        <v>27.27901433228762</v>
+        <v>3984410.050830927</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>32.57751466177595</v>
+        <v>1116401.988725323</v>
       </c>
       <c r="G97">
-        <v>338.3525698697418</v>
+        <v>4841695.452503138</v>
       </c>
       <c r="H97">
-        <v>1534.065637442361</v>
+        <v>3986276.375482096</v>
       </c>
       <c r="I97">
-        <v>610.2490054294014</v>
+        <v>1117001.079779111</v>
       </c>
       <c r="J97">
-        <v>-43.71613014933455</v>
+        <v>4841185.823253364</v>
       </c>
       <c r="K97">
-        <v>-229.305894264429</v>
+        <v>3984092.751256286</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>32.12203826171032</v>
+        <v>1116401.407211994</v>
       </c>
       <c r="G98">
-        <v>350.0424341791742</v>
+        <v>4841711.965298273</v>
       </c>
       <c r="H98">
-        <v>1540.847734624155</v>
+        <v>3986284.81235031</v>
       </c>
       <c r="I98">
-        <v>688.9172083396821</v>
+        <v>1117083.343637957</v>
       </c>
       <c r="J98">
-        <v>-92.75972522975938</v>
+        <v>4841137.171605683</v>
       </c>
       <c r="K98">
-        <v>-498.1408147854178</v>
+        <v>3983760.30299814</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>31.68514273499136</v>
+        <v>1116400.849421136</v>
       </c>
       <c r="G99">
-        <v>361.7322984886067</v>
+        <v>4841728.478093406</v>
       </c>
       <c r="H99">
-        <v>1547.444305242981</v>
+        <v>3986293.018425141</v>
       </c>
       <c r="I99">
-        <v>769.5225433732095</v>
+        <v>1117167.633168647</v>
       </c>
       <c r="J99">
-        <v>-141.8033203101842</v>
+        <v>4841088.519958001</v>
       </c>
       <c r="K99">
-        <v>-779.2257472306787</v>
+        <v>3983412.706056486</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>31.26559845096778</v>
+        <v>1116400.313782861</v>
       </c>
       <c r="G100">
-        <v>373.4221627980391</v>
+        <v>4841744.99088854</v>
       </c>
       <c r="H100">
-        <v>1553.865229895199</v>
+        <v>3986301.00599796</v>
       </c>
       <c r="I100">
-        <v>852.1127106263889</v>
+        <v>1117253.998251484</v>
       </c>
       <c r="J100">
-        <v>-190.846915390609</v>
+        <v>4841039.868310318</v>
       </c>
       <c r="K100">
-        <v>-1072.56069160021</v>
+        <v>3983049.960431326</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>30.86228674291725</v>
+        <v>1116399.798868951</v>
       </c>
       <c r="G101">
-        <v>385.1120271074715</v>
+        <v>4841761.503683674</v>
       </c>
       <c r="H101">
-        <v>1560.119620290224</v>
+        <v>3986308.786403652</v>
       </c>
       <c r="I101">
-        <v>936.7365847666166</v>
+        <v>1117342.489995033</v>
       </c>
       <c r="J101">
-        <v>-239.8905104710334</v>
+        <v>4840991.216662637</v>
       </c>
       <c r="K101">
-        <v>-1378.145647894012</v>
+        <v>3982672.066122659</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>30.47418735934375</v>
+        <v>1116399.303376836</v>
       </c>
       <c r="G102">
-        <v>396.801891416904</v>
+        <v>4841778.016478808</v>
       </c>
       <c r="H102">
-        <v>1566.215897015135</v>
+        <v>3986316.370117354</v>
       </c>
       <c r="I102">
-        <v>1023.444243955012</v>
+        <v>1117433.160766355</v>
       </c>
       <c r="J102">
-        <v>-288.9341055514582</v>
+        <v>4840942.565014956</v>
       </c>
       <c r="K102">
-        <v>-1695.980616112086</v>
+        <v>3982279.023130486</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>30.10036760692788</v>
+        <v>1116398.826115734</v>
       </c>
       <c r="G103">
-        <v>408.4917557263364</v>
+        <v>4841794.529273942</v>
       </c>
       <c r="H103">
-        <v>1572.161857709939</v>
+        <v>3986323.76683926</v>
       </c>
       <c r="I103">
-        <v>1112.286999481337</v>
+        <v>1117526.064222005</v>
       </c>
       <c r="J103">
-        <v>-337.9777006318831</v>
+        <v>4840893.913367273</v>
       </c>
       <c r="K103">
-        <v>-2026.065596254432</v>
+        <v>3981870.831454806</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>29.73997292211185</v>
+        <v>1116398.36599461</v>
       </c>
       <c r="G104">
-        <v>420.1816200357688</v>
+        <v>4841811.042069076</v>
       </c>
       <c r="H104">
-        <v>1577.964737038392</v>
+        <v>3986330.985569226</v>
       </c>
       <c r="I104">
-        <v>1203.317426128661</v>
+        <v>1117621.255339781</v>
       </c>
       <c r="J104">
-        <v>-387.0212957123079</v>
+        <v>4840845.261719592</v>
       </c>
       <c r="K104">
-        <v>-2368.40058832105</v>
+        <v>3981447.49109562</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>29.3922186543777</v>
+        <v>1116397.92201169</v>
       </c>
       <c r="G105">
-        <v>431.8714843452013</v>
+        <v>4841827.554864209</v>
       </c>
       <c r="H105">
-        <v>1583.63125961139</v>
+        <v>3986338.034672608</v>
       </c>
       <c r="I105">
-        <v>1296.58939328572</v>
+        <v>1117718.790451258</v>
       </c>
       <c r="J105">
-        <v>-436.0648907927327</v>
+        <v>4840796.61007191</v>
       </c>
       <c r="K105">
-        <v>-2722.985592311938</v>
+        <v>3981009.002052926</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>29.05638288141311</v>
+        <v>1116397.493245286</v>
       </c>
       <c r="G106">
-        <v>443.5613486546337</v>
+        <v>4841844.067659344</v>
       </c>
       <c r="H106">
-        <v>1589.167686833974</v>
+        <v>3986344.921938538</v>
       </c>
       <c r="I106">
-        <v>1392.158096825383</v>
+        <v>1117818.727275124</v>
       </c>
       <c r="J106">
-        <v>-485.1084858731571</v>
+        <v>4840747.958424228</v>
       </c>
       <c r="K106">
-        <v>-3089.820608227096</v>
+        <v>3980555.364326727</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>28.73180010645584</v>
+        <v>1116397.078845747</v>
       </c>
       <c r="G107">
-        <v>455.2512129640662</v>
+        <v>4841860.580454478</v>
       </c>
       <c r="H107">
-        <v>1594.57985849437</v>
+        <v>3986351.654631661</v>
       </c>
       <c r="I107">
-        <v>1490.080091768117</v>
+        <v>1117921.124951338</v>
       </c>
       <c r="J107">
-        <v>-534.152080953582</v>
+        <v>4840699.306776546</v>
       </c>
       <c r="K107">
-        <v>-3468.905636066528</v>
+        <v>3980086.57791702</v>
       </c>
     </row>
   </sheetData>
